--- a/french_coal_production.xlsx
+++ b/french_coal_production.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spicy.kev/Documents/github/html_playground/french_coal_production_linear_regression/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{03988571-2ED8-F94E-8DA8-629817D986A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585C4698-887B-F845-B2B5-EB08E75B7AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="french_coal_production" sheetId="1" r:id="rId1"/>
@@ -136,9 +136,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -626,7 +626,7 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -985,11 +985,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1022,14 +1022,14 @@
         <v>31</v>
       </c>
       <c r="C2">
-        <v>13000</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="str">
         <f>C2&amp;"K"</f>
-        <v>13000K</v>
+        <v>13K</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1040,14 +1040,14 @@
         <v>31</v>
       </c>
       <c r="C3">
-        <v>12900</v>
+        <v>12.9</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E50" si="0">C3&amp;"K"</f>
-        <v>12900K</v>
+        <v>12.9K</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1058,14 +1058,14 @@
         <v>31</v>
       </c>
       <c r="C4">
-        <v>15400</v>
+        <v>15.4</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>15400K</v>
+        <v>15.4K</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1076,14 +1076,14 @@
         <v>31</v>
       </c>
       <c r="C5">
-        <v>17000</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>17000K</v>
+        <v>17K</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1094,14 +1094,14 @@
         <v>31</v>
       </c>
       <c r="C6">
-        <v>16400</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v>16400K</v>
+        <v>16.4K</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1112,14 +1112,14 @@
         <v>31</v>
       </c>
       <c r="C7">
-        <v>16500</v>
+        <v>16.5</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>16500K</v>
+        <v>16.5K</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1130,14 +1130,14 @@
         <v>31</v>
       </c>
       <c r="C8">
-        <v>16600</v>
+        <v>16.559999999999999</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>16600K</v>
+        <v>16.56K</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1148,14 +1148,14 @@
         <v>31</v>
       </c>
       <c r="C9">
-        <v>16300</v>
+        <v>16.3</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>16300K</v>
+        <v>16.3K</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1166,14 +1166,14 @@
         <v>31</v>
       </c>
       <c r="C10">
-        <v>16400</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>16400K</v>
+        <v>16.4K</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1184,14 +1184,14 @@
         <v>31</v>
       </c>
       <c r="C11">
-        <v>16600</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v>16600K</v>
+        <v>16.6K</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1202,14 +1202,14 @@
         <v>31</v>
       </c>
       <c r="C12">
-        <v>18800</v>
+        <v>18.8</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v>18800K</v>
+        <v>18.8K</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1220,14 +1220,14 @@
         <v>31</v>
       </c>
       <c r="C13">
-        <v>19200</v>
+        <v>19.2</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v>19200K</v>
+        <v>19.2K</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -1238,14 +1238,14 @@
         <v>31</v>
       </c>
       <c r="C14">
-        <v>20000</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v>20000K</v>
+        <v>20K</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1256,14 +1256,14 @@
         <v>31</v>
       </c>
       <c r="C15">
-        <v>20800</v>
+        <v>20.8</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v>20800K</v>
+        <v>20.8K</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1274,14 +1274,14 @@
         <v>31</v>
       </c>
       <c r="C16">
-        <v>19500</v>
+        <v>19.5</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
-        <v>19500K</v>
+        <v>19.5K</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1292,14 +1292,14 @@
         <v>31</v>
       </c>
       <c r="C17">
-        <v>19100</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v>19100K</v>
+        <v>19.1K</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1310,14 +1310,14 @@
         <v>31</v>
       </c>
       <c r="C18">
-        <v>19500</v>
+        <v>19.5</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
-        <v>19500K</v>
+        <v>19.5K</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1328,14 +1328,14 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>20800</v>
+        <v>20.8</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
-        <v>20800K</v>
+        <v>20.8K</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1346,14 +1346,14 @@
         <v>31</v>
       </c>
       <c r="C20">
-        <v>22200</v>
+        <v>22.2</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
-        <v>22200K</v>
+        <v>22.2K</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1364,14 +1364,14 @@
         <v>31</v>
       </c>
       <c r="C21">
-        <v>23900</v>
+        <v>23.9</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
-        <v>23900K</v>
+        <v>23.9K</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1382,14 +1382,14 @@
         <v>31</v>
       </c>
       <c r="C22">
-        <v>25600</v>
+        <v>25.6</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
-        <v>25600K</v>
+        <v>25.6K</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1400,14 +1400,14 @@
         <v>31</v>
       </c>
       <c r="C23">
-        <v>25500</v>
+        <v>25.5</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
-        <v>25500K</v>
+        <v>25.5K</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1418,14 +1418,14 @@
         <v>31</v>
       </c>
       <c r="C24">
-        <v>25700</v>
+        <v>25.7</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
-        <v>25700K</v>
+        <v>25.7K</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1436,14 +1436,14 @@
         <v>31</v>
       </c>
       <c r="C25">
-        <v>25200</v>
+        <v>25.2</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
-        <v>25200K</v>
+        <v>25.2K</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1454,14 +1454,14 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <v>27000</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
-        <v>27000K</v>
+        <v>27K</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1472,14 +1472,14 @@
         <v>31</v>
       </c>
       <c r="C27">
-        <v>27600</v>
+        <v>27.6</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
-        <v>27600K</v>
+        <v>27.6K</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1490,14 +1490,14 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>28800</v>
+        <v>28.8</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
       </c>
       <c r="E28" t="str">
         <f>C28&amp;"K"</f>
-        <v>28800K</v>
+        <v>28.8K</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1508,14 +1508,14 @@
         <v>31</v>
       </c>
       <c r="C29">
-        <v>30300</v>
+        <v>30.3</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
-        <v>30300K</v>
+        <v>30.3K</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -1526,14 +1526,14 @@
         <v>31</v>
       </c>
       <c r="C30">
-        <v>31800</v>
+        <v>31.8</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
-        <v>31800K</v>
+        <v>31.8K</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1544,14 +1544,14 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>32300</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
-        <v>32300K</v>
+        <v>32.3K</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1562,14 +1562,14 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <v>32700</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
-        <v>32700K</v>
+        <v>32.7K</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1580,14 +1580,14 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>31600</v>
+        <v>31.6</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
-        <v>31600K</v>
+        <v>31.6K</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1598,14 +1598,14 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>29400</v>
+        <v>29.4</v>
       </c>
       <c r="D34" t="s">
         <v>3</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
-        <v>29400K</v>
+        <v>29.4K</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1616,14 +1616,14 @@
         <v>31</v>
       </c>
       <c r="C35">
-        <v>34200</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="D35" t="s">
         <v>3</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
-        <v>34200K</v>
+        <v>34.2K</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1634,14 +1634,14 @@
         <v>31</v>
       </c>
       <c r="C36">
-        <v>33500</v>
+        <v>33.5</v>
       </c>
       <c r="D36" t="s">
         <v>3</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
-        <v>33500K</v>
+        <v>33.5K</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1652,14 +1652,14 @@
         <v>31</v>
       </c>
       <c r="C37">
-        <v>35200</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="D37" t="s">
         <v>3</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
-        <v>35200K</v>
+        <v>35.2K</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1670,14 +1670,14 @@
         <v>31</v>
       </c>
       <c r="C38">
-        <v>33500</v>
+        <v>33.5</v>
       </c>
       <c r="D38" t="s">
         <v>3</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
-        <v>33500K</v>
+        <v>33.5K</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
